--- a/biology/Zoologie/Gloydius_shedaoensis/Gloydius_shedaoensis.xlsx
+++ b/biology/Zoologie/Gloydius_shedaoensis/Gloydius_shedaoensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gloydius shedaoensis est une espèce de serpents de la famille des Viperidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gloydius shedaoensis est une espèce de serpents de la famille des Viperidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique la province du Liaoning en République populaire de Chine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique la province du Liaoning en République populaire de Chine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 février 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 février 2014) :
 Gloydius shedaoensis shedaoensis (Zhao, 1979)
 Gloydius shedaoensis qianshanensis Li, 1999</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de shedao et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Shedao, une île située à 24 milles au large de Lüshunkou. La sous-espèce Gloydius shedaoensis qianshanensis, composé de qianshan et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le district de Qianshan.
 </t>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Li, 1999 : Infraspecific classification of two species of Gloydius (Serpentes: Crotalinae). Acta Zootaxonomica Sinica, vol. 24, no 4, p. 454-460.
 Zhao, 1979 : A new Agkistrodon from Shedao (Snake Island), Liaoning. Acta Herpetologica Sinica, vol. 1, no 1, p. 4-6 (texte intégral).</t>
